--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ccl12-Ccr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Ccr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H2">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I2">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J2">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.002632</v>
+        <v>1.454519666666667</v>
       </c>
       <c r="N2">
-        <v>0.007896</v>
+        <v>4.363559</v>
       </c>
       <c r="O2">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="P2">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="Q2">
-        <v>0.1061469851866667</v>
+        <v>1.462890912188223</v>
       </c>
       <c r="R2">
-        <v>0.9553228666800001</v>
+        <v>13.166018209694</v>
       </c>
       <c r="S2">
-        <v>2.931786643069326E-06</v>
+        <v>2.528561681172443E-05</v>
       </c>
       <c r="T2">
-        <v>2.931786643069326E-06</v>
+        <v>2.528561681172443E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H3">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I3">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J3">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>58.61543533333333</v>
+        <v>138.9276553333333</v>
       </c>
       <c r="N3">
-        <v>175.846306</v>
+        <v>416.782966</v>
       </c>
       <c r="O3">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860134</v>
       </c>
       <c r="P3">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860133</v>
       </c>
       <c r="Q3">
-        <v>2363.925435424525</v>
+        <v>139.7272302989951</v>
       </c>
       <c r="R3">
-        <v>21275.32891882073</v>
+        <v>1257.545072690956</v>
       </c>
       <c r="S3">
-        <v>0.06529177446351081</v>
+        <v>0.002415141945354691</v>
       </c>
       <c r="T3">
-        <v>0.06529177446351082</v>
+        <v>0.002415141945354691</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H4">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I4">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J4">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>335.2538503333333</v>
+        <v>417.8699646666667</v>
       </c>
       <c r="N4">
-        <v>1005.761551</v>
+        <v>1253.609894</v>
       </c>
       <c r="O4">
-        <v>0.7935778071233418</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="P4">
-        <v>0.7935778071233419</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="Q4">
-        <v>13520.58719038955</v>
+        <v>420.2749456033116</v>
       </c>
       <c r="R4">
-        <v>121685.284713506</v>
+        <v>3782.474510429804</v>
       </c>
       <c r="S4">
-        <v>0.3734394986492514</v>
+        <v>0.007264322405419631</v>
       </c>
       <c r="T4">
-        <v>0.3734394986492514</v>
+        <v>0.007264322405419631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>40.32940166666667</v>
+        <v>1.005755333333333</v>
       </c>
       <c r="H5">
-        <v>120.988205</v>
+        <v>3.017266</v>
       </c>
       <c r="I5">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="J5">
-        <v>0.470577043986324</v>
+        <v>0.01048729000197281</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.58678433333333</v>
+        <v>45.01451866666667</v>
       </c>
       <c r="N5">
-        <v>85.76035299999999</v>
+        <v>135.043556</v>
       </c>
       <c r="O5">
-        <v>0.06766764229970419</v>
+        <v>0.07461794555500532</v>
       </c>
       <c r="P5">
-        <v>0.06766764229970421</v>
+        <v>0.07461794555500531</v>
       </c>
       <c r="Q5">
-        <v>1152.887907737374</v>
+        <v>45.27359222643289</v>
       </c>
       <c r="R5">
-        <v>10375.99116963637</v>
+        <v>407.462330037896</v>
       </c>
       <c r="S5">
-        <v>0.03184283908691874</v>
+        <v>0.0007825400343867585</v>
       </c>
       <c r="T5">
-        <v>0.03184283908691875</v>
+        <v>0.0007825400343867583</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H6">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I6">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J6">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.002632</v>
+        <v>1.454519666666667</v>
       </c>
       <c r="N6">
-        <v>0.007896</v>
+        <v>4.363559</v>
       </c>
       <c r="O6">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="P6">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="Q6">
-        <v>0.02557824888266667</v>
+        <v>56.370449308463</v>
       </c>
       <c r="R6">
-        <v>0.230204239944</v>
+        <v>507.334043776167</v>
       </c>
       <c r="S6">
-        <v>7.064728997760049E-07</v>
+        <v>0.0009743457757806745</v>
       </c>
       <c r="T6">
-        <v>7.06472899776005E-07</v>
+        <v>0.0009743457757806742</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H7">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I7">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J7">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.61543533333333</v>
+        <v>138.9276553333333</v>
       </c>
       <c r="N7">
-        <v>175.846306</v>
+        <v>416.782966</v>
       </c>
       <c r="O7">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860134</v>
       </c>
       <c r="P7">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860133</v>
       </c>
       <c r="Q7">
-        <v>569.6353318092148</v>
+        <v>5384.192824603461</v>
       </c>
       <c r="R7">
-        <v>5126.717986282934</v>
+        <v>48457.73542143115</v>
       </c>
       <c r="S7">
-        <v>0.01573336495880429</v>
+        <v>0.0930641071518548</v>
       </c>
       <c r="T7">
-        <v>0.01573336495880429</v>
+        <v>0.09306410715185479</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H8">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I8">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J8">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>335.2538503333333</v>
+        <v>417.8699646666667</v>
       </c>
       <c r="N8">
-        <v>1005.761551</v>
+        <v>1253.609894</v>
       </c>
       <c r="O8">
-        <v>0.7935778071233418</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="P8">
-        <v>0.7935778071233419</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="Q8">
-        <v>3258.057151481109</v>
+        <v>16194.70551041356</v>
       </c>
       <c r="R8">
-        <v>29322.51436332999</v>
+        <v>145752.349593722</v>
       </c>
       <c r="S8">
-        <v>0.08998775068619329</v>
+        <v>0.2799204742495195</v>
       </c>
       <c r="T8">
-        <v>0.08998775068619332</v>
+        <v>0.2799204742495195</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.718179666666666</v>
+        <v>38.755371</v>
       </c>
       <c r="H9">
-        <v>29.154539</v>
+        <v>116.266113</v>
       </c>
       <c r="I9">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="J9">
-        <v>0.1133949940112261</v>
+        <v>0.4041130097356814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.58678433333333</v>
+        <v>45.01451866666667</v>
       </c>
       <c r="N9">
-        <v>85.76035299999999</v>
+        <v>135.043556</v>
       </c>
       <c r="O9">
-        <v>0.06766764229970419</v>
+        <v>0.07461794555500532</v>
       </c>
       <c r="P9">
-        <v>0.06766764229970421</v>
+        <v>0.07461794555500531</v>
       </c>
       <c r="Q9">
-        <v>277.8115062435852</v>
+        <v>1744.554371313092</v>
       </c>
       <c r="R9">
-        <v>2500.303556192267</v>
+        <v>15700.98934181783</v>
       </c>
       <c r="S9">
-        <v>0.007673171893328747</v>
+        <v>0.03015408255852641</v>
       </c>
       <c r="T9">
-        <v>0.00767317189332875</v>
+        <v>0.0301540825585264</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1018,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H10">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I10">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J10">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.002632</v>
+        <v>1.454519666666667</v>
       </c>
       <c r="N10">
-        <v>0.007896</v>
+        <v>4.363559</v>
       </c>
       <c r="O10">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="P10">
-        <v>6.230194780080539E-06</v>
+        <v>0.002411072527504041</v>
       </c>
       <c r="Q10">
-        <v>0.09384247379733333</v>
+        <v>11.619389630616</v>
       </c>
       <c r="R10">
-        <v>0.8445822641759999</v>
+        <v>104.574506675544</v>
       </c>
       <c r="S10">
-        <v>2.591935237235209E-06</v>
+        <v>0.0002008375548292957</v>
       </c>
       <c r="T10">
-        <v>2.591935237235209E-06</v>
+        <v>0.0002008375548292956</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,13 +1080,13 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H11">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I11">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J11">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.61543533333333</v>
+        <v>138.9276553333333</v>
       </c>
       <c r="N11">
-        <v>175.846306</v>
+        <v>416.782966</v>
       </c>
       <c r="O11">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860134</v>
       </c>
       <c r="P11">
-        <v>0.1387483203821739</v>
+        <v>0.2302922818860133</v>
       </c>
       <c r="Q11">
-        <v>2089.900248627515</v>
+        <v>1109.819684655984</v>
       </c>
       <c r="R11">
-        <v>18809.10223764763</v>
+        <v>9988.377161903854</v>
       </c>
       <c r="S11">
-        <v>0.05772318095985879</v>
+        <v>0.0191828898809301</v>
       </c>
       <c r="T11">
-        <v>0.0577231809598588</v>
+        <v>0.01918288988093009</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1142,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.65443533333333</v>
+        <v>7.988471999999999</v>
       </c>
       <c r="H12">
-        <v>106.963306</v>
+        <v>23.965416</v>
       </c>
       <c r="I12">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="J12">
-        <v>0.41602796200245</v>
+        <v>0.08329801469605898</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>335.2538503333333</v>
+        <v>417.8699646666667</v>
       </c>
       <c r="N12">
-        <v>1005.761551</v>
+        <v>1253.609894</v>
       </c>
       <c r="O12">
-        <v>0.7935778071233418</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="P12">
-        <v>0.7935778071233419</v>
+        <v>0.6926787000314772</v>
       </c>
       <c r="Q12">
-        <v>11953.28672696085</v>
+        <v>3338.142512380656</v>
       </c>
       <c r="R12">
-        <v>107579.5805426476</v>
+        <v>30043.2826114259</v>
       </c>
       <c r="S12">
-        <v>0.3301505577878972</v>
+        <v>0.05769876053486902</v>
       </c>
       <c r="T12">
-        <v>0.3301505577878973</v>
+        <v>0.05769876053486902</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.988471999999999</v>
+      </c>
+      <c r="H13">
+        <v>23.965416</v>
+      </c>
+      <c r="I13">
+        <v>0.08329801469605898</v>
+      </c>
+      <c r="J13">
+        <v>0.08329801469605898</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>45.01451866666667</v>
+      </c>
+      <c r="N13">
+        <v>135.043556</v>
+      </c>
+      <c r="O13">
+        <v>0.07461794555500532</v>
+      </c>
+      <c r="P13">
+        <v>0.07461794555500531</v>
+      </c>
+      <c r="Q13">
+        <v>359.597221962144</v>
+      </c>
+      <c r="R13">
+        <v>3236.374997659296</v>
+      </c>
+      <c r="S13">
+        <v>0.006215526725430562</v>
+      </c>
+      <c r="T13">
+        <v>0.006215526725430561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H14">
+        <v>144.458134</v>
+      </c>
+      <c r="I14">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J14">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>1.454519666666667</v>
+      </c>
+      <c r="N14">
+        <v>4.363559</v>
+      </c>
+      <c r="O14">
+        <v>0.002411072527504041</v>
+      </c>
+      <c r="P14">
+        <v>0.002411072527504041</v>
+      </c>
+      <c r="Q14">
+        <v>70.03906563765624</v>
+      </c>
+      <c r="R14">
+        <v>630.3515907389061</v>
+      </c>
+      <c r="S14">
+        <v>0.001210603580082347</v>
+      </c>
+      <c r="T14">
+        <v>0.001210603580082346</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H15">
+        <v>144.458134</v>
+      </c>
+      <c r="I15">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J15">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>138.9276553333333</v>
+      </c>
+      <c r="N15">
+        <v>416.782966</v>
+      </c>
+      <c r="O15">
+        <v>0.2302922818860134</v>
+      </c>
+      <c r="P15">
+        <v>0.2302922818860133</v>
+      </c>
+      <c r="Q15">
+        <v>6689.743283482827</v>
+      </c>
+      <c r="R15">
+        <v>60207.68955134544</v>
+      </c>
+      <c r="S15">
+        <v>0.1156301429078738</v>
+      </c>
+      <c r="T15">
+        <v>0.1156301429078737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>35.65443533333333</v>
-      </c>
-      <c r="H13">
-        <v>106.963306</v>
-      </c>
-      <c r="I13">
-        <v>0.41602796200245</v>
-      </c>
-      <c r="J13">
-        <v>0.41602796200245</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>28.58678433333333</v>
-      </c>
-      <c r="N13">
-        <v>85.76035299999999</v>
-      </c>
-      <c r="O13">
-        <v>0.06766764229970419</v>
-      </c>
-      <c r="P13">
-        <v>0.06766764229970421</v>
-      </c>
-      <c r="Q13">
-        <v>1019.24565340078</v>
-      </c>
-      <c r="R13">
-        <v>9173.210880607017</v>
-      </c>
-      <c r="S13">
-        <v>0.02815163131945671</v>
-      </c>
-      <c r="T13">
-        <v>0.02815163131945672</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H16">
+        <v>144.458134</v>
+      </c>
+      <c r="I16">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J16">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>417.8699646666667</v>
+      </c>
+      <c r="N16">
+        <v>1253.609894</v>
+      </c>
+      <c r="O16">
+        <v>0.6926787000314772</v>
+      </c>
+      <c r="P16">
+        <v>0.6926787000314772</v>
+      </c>
+      <c r="Q16">
+        <v>20121.5717834642</v>
+      </c>
+      <c r="R16">
+        <v>181094.1460511778</v>
+      </c>
+      <c r="S16">
+        <v>0.3477951428416691</v>
+      </c>
+      <c r="T16">
+        <v>0.3477951428416691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>48.15271133333334</v>
+      </c>
+      <c r="H17">
+        <v>144.458134</v>
+      </c>
+      <c r="I17">
+        <v>0.5021016855662869</v>
+      </c>
+      <c r="J17">
+        <v>0.5021016855662868</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>45.01451866666667</v>
+      </c>
+      <c r="N17">
+        <v>135.043556</v>
+      </c>
+      <c r="O17">
+        <v>0.07461794555500532</v>
+      </c>
+      <c r="P17">
+        <v>0.07461794555500531</v>
+      </c>
+      <c r="Q17">
+        <v>2167.571123164945</v>
+      </c>
+      <c r="R17">
+        <v>19508.1401084845</v>
+      </c>
+      <c r="S17">
+        <v>0.0374657962366616</v>
+      </c>
+      <c r="T17">
+        <v>0.03746579623666158</v>
       </c>
     </row>
   </sheetData>
